--- a/Running projects/BAF Head Office/OLD 2023/Running Bill No 3 (Rec now only retention rem of 8 lac plus).xlsx
+++ b/Running projects/BAF Head Office/OLD 2023/Running Bill No 3 (Rec now only retention rem of 8 lac plus).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\OLD 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88E7AD1-B5C9-4958-B628-818A4603A2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F0D702-DC2E-4303-A1E3-E495B4A3ED6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="153">
   <si>
     <t>S.NO</t>
   </si>
@@ -475,15 +475,34 @@
   </si>
   <si>
     <t>Total Cost of Work</t>
+  </si>
+  <si>
+    <t>Payable</t>
+  </si>
+  <si>
+    <t>Received on  7 Oct 23</t>
+  </si>
+  <si>
+    <t>Net payable</t>
+  </si>
+  <si>
+    <t>Rceived on 7 Feb 24</t>
+  </si>
+  <si>
+    <t>Tax on material 5.5% &amp; on lab 11%</t>
+  </si>
+  <si>
+    <t>4.237% Sales tax on Material</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -808,11 +827,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1017,6 +1037,7 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1095,6 +1116,27 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1104,31 +1146,11 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1147,16 +1169,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>353333</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>67108</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>143783</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>124258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1179,7 +1201,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9982200" y="6048375"/>
+          <a:off x="11601450" y="5715000"/>
           <a:ext cx="6506483" cy="3105583"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1191,16 +1213,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>10456</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>181371</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>29506</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>86121</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1223,8 +1245,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9477375" y="9391650"/>
+          <a:off x="11934825" y="8915400"/>
           <a:ext cx="6668431" cy="2838846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>439097</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>20126</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA31884-74C2-5827-090F-337FEB17F0A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9182100" y="4362450"/>
+          <a:ext cx="6782747" cy="7706801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1548,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D57402-0FA0-4D20-97E8-578049FFF70A}">
-  <dimension ref="A6:J51"/>
+  <dimension ref="A6:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,8 +1948,8 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:5" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="52" t="s">
         <v>83</v>
       </c>
@@ -1892,8 +1958,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="52" t="s">
         <v>88</v>
       </c>
@@ -1931,63 +1997,63 @@
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:5" s="29" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
     </row>
     <row r="13" spans="1:5" s="29" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:5" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
     </row>
     <row r="15" spans="1:5" s="29" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:5" s="29" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
     </row>
     <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="87"/>
+      <c r="C17" s="88"/>
       <c r="D17" s="34" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="79"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="37">
         <f>Summary!E29</f>
         <v>13221296</v>
@@ -1995,10 +2061,10 @@
     </row>
     <row r="20" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="79"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="37">
         <f>Summary!E30</f>
         <v>335927.39999999997</v>
@@ -2006,10 +2072,10 @@
     </row>
     <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="79"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="37">
         <f>D20+D19</f>
         <v>13557223.4</v>
@@ -2023,10 +2089,10 @@
     </row>
     <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="80" t="s">
         <v>113</v>
       </c>
       <c r="D23" s="37">
@@ -2035,10 +2101,10 @@
     </row>
     <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="80" t="s">
         <v>114</v>
       </c>
       <c r="D24" s="37">
@@ -2055,10 +2121,10 @@
       <c r="A26" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="79"/>
+      <c r="C26" s="80"/>
       <c r="D26" s="59">
         <f>Summary!E34</f>
         <v>4273243.7300000004</v>
@@ -2067,8 +2133,8 @@
     </row>
     <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="89"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="59"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
@@ -2079,10 +2145,10 @@
     </row>
     <row r="29" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="91"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="38">
         <f>D26</f>
         <v>4273243.7300000004</v>
@@ -2091,8 +2157,8 @@
     </row>
     <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
       <c r="D30" s="38"/>
       <c r="G30" s="41"/>
     </row>
@@ -2100,10 +2166,10 @@
       <c r="A31" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="80"/>
       <c r="D31" s="37">
         <v>3298897</v>
       </c>
@@ -2112,10 +2178,10 @@
       <c r="A32" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="79"/>
+      <c r="C32" s="80"/>
       <c r="D32" s="77">
         <v>862254</v>
       </c>
@@ -2128,10 +2194,10 @@
       <c r="A33" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="80"/>
       <c r="D33" s="37">
         <f>D32*13%</f>
         <v>112093.02</v>
@@ -2144,17 +2210,17 @@
     </row>
     <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="34"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="38"/>
       <c r="F34" s="41"/>
     </row>
     <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="91"/>
+      <c r="C35" s="92"/>
       <c r="D35" s="38">
         <f>D33+D32+D31</f>
         <v>4273244.0199999996</v>
@@ -2180,10 +2246,10 @@
       <c r="D38" s="40"/>
     </row>
     <row r="39" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="85" t="s">
+      <c r="A39" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="85"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="57"/>
       <c r="G39" s="56"/>
     </row>
@@ -2198,15 +2264,15 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="C43" s="54">
-        <f>D31*4.5%</f>
-        <v>148450.36499999999</v>
+        <f>D31*5.5%</f>
+        <v>181439.33499999999</v>
       </c>
       <c r="D43" s="54">
-        <f>SUM(D32+D33)*10%</f>
-        <v>97434.702000000005</v>
+        <f>SUM(D32+D33)*11%</f>
+        <v>107178.1722</v>
       </c>
       <c r="E43" s="14"/>
       <c r="H43" s="56">
@@ -2216,11 +2282,11 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="C44" s="54">
-        <f>D31*4.241%</f>
-        <v>139906.22176999997</v>
+        <f>D31*G45</f>
+        <v>139783.77118644066</v>
       </c>
       <c r="E44" s="14"/>
       <c r="H44" s="56">
@@ -2237,6 +2303,10 @@
         <v>22418.604000000003</v>
       </c>
       <c r="E45" s="14"/>
+      <c r="G45" s="78">
+        <f>5/118</f>
+        <v>4.2372881355932202E-2</v>
+      </c>
       <c r="H45" s="56">
         <f>H44+H43</f>
         <v>0</v>
@@ -2247,29 +2317,52 @@
       <c r="H46" s="56"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="C47" s="55"/>
       <c r="D47" s="55">
         <f>D35-C43-C44-D43-D45</f>
-        <v>3865034.1272299993</v>
+        <v>3822424.1376135591</v>
       </c>
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="D49" s="55">
         <v>3144567</v>
       </c>
       <c r="E49" s="14"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="D51" s="55">
         <f>D47-D49</f>
-        <v>720467.12722999929</v>
+        <v>677857.13761355914</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="54">
+        <v>677861</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D55" s="55">
+        <f>D51-D53</f>
+        <v>-3.8623864408582449</v>
       </c>
     </row>
   </sheetData>
@@ -2290,12 +2383,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2674,39 +2767,39 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
     </row>
     <row r="9" spans="1:5" s="29" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
     </row>
     <row r="11" spans="1:5" s="29" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
     </row>
     <row r="13" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
@@ -3056,11 +3149,11 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="85" t="s">
+      <c r="A36" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
       <c r="G36" s="41">
         <f>E32+E33+Invocice!D29</f>
         <v>13557223.4</v>
@@ -3164,36 +3257,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
     </row>
     <row r="2" spans="1:11" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="101" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
@@ -4109,14 +4202,14 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="94" t="s">
+      <c r="A29" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="96"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="97"/>
       <c r="G29" s="13">
         <v>0</v>
       </c>
@@ -4977,14 +5070,14 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="94" t="s">
+      <c r="A54" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="95"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="95"/>
-      <c r="E54" s="95"/>
-      <c r="F54" s="96"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="97"/>
       <c r="G54" s="13">
         <v>0</v>
       </c>
@@ -5090,7 +5183,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2</v>
       </c>
@@ -5851,14 +5944,14 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="94" t="s">
+      <c r="A79" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="B79" s="95"/>
-      <c r="C79" s="95"/>
-      <c r="D79" s="95"/>
-      <c r="E79" s="95"/>
-      <c r="F79" s="96"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="96"/>
+      <c r="D79" s="96"/>
+      <c r="E79" s="96"/>
+      <c r="F79" s="97"/>
       <c r="G79" s="42"/>
       <c r="H79" s="42"/>
       <c r="I79" s="42"/>
@@ -5916,36 +6009,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
     </row>
     <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="101" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="1:11" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
@@ -6631,14 +6724,14 @@
       </c>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="97"/>
       <c r="G23" s="42"/>
       <c r="H23" s="42"/>
       <c r="I23" s="42"/>
@@ -6672,10 +6765,10 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="108"/>
+      <c r="C25" s="106"/>
       <c r="D25" s="10"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -6911,14 +7004,14 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="96"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="97"/>
       <c r="G33" s="42"/>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
@@ -6948,10 +7041,10 @@
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="108"/>
+      <c r="C35" s="106"/>
       <c r="D35" s="10"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -7000,14 +7093,14 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="96"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="97"/>
       <c r="G37" s="42"/>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
@@ -7037,10 +7130,10 @@
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="109" t="s">
+      <c r="B39" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="110"/>
+      <c r="C39" s="108"/>
       <c r="D39" s="10"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -7063,29 +7156,29 @@
       <c r="B40" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111" t="s">
+      <c r="C40" s="109"/>
+      <c r="D40" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="104">
+      <c r="E40" s="112">
         <v>105000</v>
       </c>
-      <c r="F40" s="104">
+      <c r="F40" s="112">
         <v>25000</v>
       </c>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111">
+      <c r="G40" s="109"/>
+      <c r="H40" s="109">
         <v>2</v>
       </c>
-      <c r="I40" s="111">
+      <c r="I40" s="109">
         <f>H40+G40</f>
         <v>2</v>
       </c>
-      <c r="J40" s="104">
+      <c r="J40" s="112">
         <f>I40*E40</f>
         <v>210000</v>
       </c>
-      <c r="K40" s="104">
+      <c r="K40" s="112">
         <f>I40*F40</f>
         <v>50000</v>
       </c>
@@ -7097,15 +7190,15 @@
       <c r="B41" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
     </row>
     <row r="42" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -7114,15 +7207,15 @@
       <c r="B42" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="113"/>
     </row>
     <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
@@ -7131,15 +7224,15 @@
       <c r="B43" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113"/>
     </row>
     <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
@@ -7148,25 +7241,25 @@
       <c r="B44" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="106"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
     </row>
     <row r="45" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="94" t="s">
+      <c r="A45" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="96"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="97"/>
       <c r="G45" s="42"/>
       <c r="H45" s="42"/>
       <c r="I45" s="42"/>
@@ -7664,14 +7757,14 @@
       </c>
     </row>
     <row r="62" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="94" t="s">
+      <c r="A62" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="95"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="95"/>
-      <c r="E62" s="95"/>
-      <c r="F62" s="96"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="97"/>
       <c r="G62" s="42"/>
       <c r="H62" s="42"/>
       <c r="I62" s="42"/>
@@ -7698,7 +7791,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A45:F45"/>
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:K2"/>
@@ -7718,6 +7810,7 @@
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A45:F45"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>

--- a/Running projects/BAF Head Office/OLD 2023/Running Bill No 3 (Rec now only retention rem of 8 lac plus).xlsx
+++ b/Running projects/BAF Head Office/OLD 2023/Running Bill No 3 (Rec now only retention rem of 8 lac plus).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\OLD 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F0D702-DC2E-4303-A1E3-E495B4A3ED6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29760A0F-3C50-4612-94A1-78F3BE203D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
@@ -832,7 +833,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1044,6 +1045,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1059,27 +1081,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1117,35 +1118,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1257,16 +1259,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>439097</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>258122</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>20126</xdr:rowOff>
+      <xdr:rowOff>48701</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1289,7 +1291,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9182100" y="4362450"/>
+          <a:off x="10401300" y="4391025"/>
           <a:ext cx="6782747" cy="7706801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1614,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D57402-0FA0-4D20-97E8-578049FFF70A}">
-  <dimension ref="A6:J55"/>
+  <dimension ref="A6:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,8 +1630,7 @@
     <col min="4" max="4" width="19.85546875" style="14" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="256" max="256" width="6.28515625" customWidth="1"/>
     <col min="257" max="257" width="40.7109375" customWidth="1"/>
     <col min="258" max="258" width="17.42578125" customWidth="1"/>
@@ -1948,8 +1949,8 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:5" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="52" t="s">
         <v>83</v>
       </c>
@@ -1958,8 +1959,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="52" t="s">
         <v>88</v>
       </c>
@@ -1997,53 +1998,53 @@
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:5" s="29" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
     </row>
     <row r="13" spans="1:5" s="29" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:5" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
     </row>
     <row r="15" spans="1:5" s="29" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:5" s="29" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
     </row>
     <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="88"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="34" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2133,8 +2134,8 @@
     </row>
     <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="85"/>
       <c r="D27" s="59"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
@@ -2145,10 +2146,10 @@
     </row>
     <row r="29" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="92"/>
+      <c r="C29" s="87"/>
       <c r="D29" s="38">
         <f>D26</f>
         <v>4273243.7300000004</v>
@@ -2157,8 +2158,8 @@
     </row>
     <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="38"/>
       <c r="G30" s="41"/>
     </row>
@@ -2210,17 +2211,17 @@
     </row>
     <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="34"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="88"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="83"/>
       <c r="D34" s="38"/>
       <c r="F34" s="41"/>
     </row>
     <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="92"/>
+      <c r="C35" s="87"/>
       <c r="D35" s="38">
         <f>D33+D32+D31</f>
         <v>4273244.0199999996</v>
@@ -2234,6 +2235,9 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D36" s="39"/>
+      <c r="I36">
+        <v>677861</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D37" s="39"/>
@@ -2241,26 +2245,33 @@
         <f>D33+D32+D31</f>
         <v>4273244.0199999996</v>
       </c>
+      <c r="I37" s="41">
+        <f>I35-I36</f>
+        <v>3595383.0199999996</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D38" s="40"/>
     </row>
     <row r="39" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="86"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="57"/>
       <c r="G39" s="56"/>
+      <c r="I39" s="115"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G40" s="56"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G41" s="56"/>
+      <c r="I41" s="115"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G42" s="56"/>
+      <c r="I42" s="115"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
@@ -2326,11 +2337,16 @@
         <v>3822424.1376135591</v>
       </c>
       <c r="E47" s="14"/>
+      <c r="G47" s="115"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G48" s="115">
+        <f>D49*15%</f>
+        <v>471685.05</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>148</v>
       </c>
@@ -2339,10 +2355,10 @@
       </c>
       <c r="E49" s="14"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
         <v>149</v>
       </c>
@@ -2350,23 +2366,78 @@
         <f>D47-D49</f>
         <v>677857.13761355914</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G51" s="115"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H52" s="115">
+        <f>I37*70%</f>
+        <v>2516768.1139999996</v>
+      </c>
+      <c r="I52" s="115">
+        <v>954527</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
         <v>150</v>
       </c>
       <c r="D53" s="54">
         <v>677861</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I53" s="115">
+        <f>I52*13%</f>
+        <v>124088.51000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I54" s="115">
+        <v>1078615</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D55" s="55">
         <f>D51-D53</f>
         <v>-3.8623864408582449</v>
       </c>
+      <c r="J55" s="115">
+        <f>I54+H52</f>
+        <v>3595383.1139999996</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H57" s="115">
+        <f>H52*5.5%</f>
+        <v>138422.24626999997</v>
+      </c>
+      <c r="I57" s="115">
+        <f>I54*11%</f>
+        <v>118647.65</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H58" s="115">
+        <f>G45*H52</f>
+        <v>106642.71669491523</v>
+      </c>
+      <c r="I58" s="115">
+        <f>20%*I53</f>
+        <v>24817.702000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I60" s="115">
+        <f>J55-H57-H58-I57-I58</f>
+        <v>3206852.7990350844</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A39:B39"/>
@@ -2383,12 +2454,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A16:D16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2780,13 +2845,13 @@
       <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
     </row>
     <row r="11" spans="1:5" s="29" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
@@ -3149,11 +3214,11 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="86" t="s">
+      <c r="A36" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
       <c r="G36" s="41">
         <f>E32+E33+Invocice!D29</f>
         <v>13557223.4</v>
@@ -6765,10 +6830,10 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="106"/>
+      <c r="C25" s="114"/>
       <c r="D25" s="10"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -7041,10 +7106,10 @@
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="105" t="s">
+      <c r="B35" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="106"/>
+      <c r="C35" s="114"/>
       <c r="D35" s="10"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -7130,10 +7195,10 @@
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="108"/>
+      <c r="C39" s="106"/>
       <c r="D39" s="10"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -7156,29 +7221,29 @@
       <c r="B40" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109" t="s">
+      <c r="C40" s="107"/>
+      <c r="D40" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="112">
+      <c r="E40" s="110">
         <v>105000</v>
       </c>
-      <c r="F40" s="112">
+      <c r="F40" s="110">
         <v>25000</v>
       </c>
-      <c r="G40" s="109"/>
-      <c r="H40" s="109">
+      <c r="G40" s="107"/>
+      <c r="H40" s="107">
         <v>2</v>
       </c>
-      <c r="I40" s="109">
+      <c r="I40" s="107">
         <f>H40+G40</f>
         <v>2</v>
       </c>
-      <c r="J40" s="112">
+      <c r="J40" s="110">
         <f>I40*E40</f>
         <v>210000</v>
       </c>
-      <c r="K40" s="112">
+      <c r="K40" s="110">
         <f>I40*F40</f>
         <v>50000</v>
       </c>
@@ -7190,15 +7255,15 @@
       <c r="B41" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="113"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="111"/>
+      <c r="K41" s="111"/>
     </row>
     <row r="42" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -7207,15 +7272,15 @@
       <c r="B42" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="113"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
     </row>
     <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
@@ -7224,15 +7289,15 @@
       <c r="B43" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="113"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
     </row>
     <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
@@ -7241,15 +7306,15 @@
       <c r="B44" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="114"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="112"/>
+      <c r="K44" s="112"/>
     </row>
     <row r="45" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="95" t="s">
@@ -7791,6 +7856,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A45:F45"/>
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:K2"/>
@@ -7807,10 +7876,6 @@
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A45:F45"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
